--- a/data/trans_dic/P15D$urgencias-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P15D$urgencias-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1979397159851068</v>
+        <v>0.185294437388538</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4685353198733556</v>
+        <v>0.4637059602191505</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5153853198412565</v>
+        <v>0.5185991282859213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3954900765848761</v>
+        <v>0.3538409463697287</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4958251859177394</v>
+        <v>0.466521853801769</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4671769535194665</v>
+        <v>0.4743075256069386</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4231346598208599</v>
+        <v>0.4209914490888718</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3204550462380549</v>
+        <v>0.3162048360924801</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4150053001498553</v>
+        <v>0.4069935434857538</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.497745769992228</v>
+        <v>0.4948588388789691</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5035600965645219</v>
+        <v>0.5060365838190475</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3909980336195965</v>
+        <v>0.3926705026709868</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6371450479962558</v>
+        <v>0.6293254356276982</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.704406026537049</v>
+        <v>0.6931069277844301</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7396108978495426</v>
+        <v>0.7378639529018115</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7076947603359156</v>
+        <v>0.6883614525742446</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8497641367414079</v>
+        <v>0.845141904201847</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6932763949009771</v>
+        <v>0.7012990198649746</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6627383145928892</v>
+        <v>0.6659999489463192</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5800172566664467</v>
+        <v>0.5693212441325392</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7029810655078047</v>
+        <v>0.7100674187523913</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6629586551403203</v>
+        <v>0.665358951393128</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6719564264901624</v>
+        <v>0.6762088368209256</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6032409630119606</v>
+        <v>0.5927599314132321</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.6559533482722116</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.5748356341614985</v>
+        <v>0.5748356341614984</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5147388372390549</v>
@@ -833,7 +833,7 @@
         <v>0.631758459004452</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5754876667516355</v>
+        <v>0.5754876667516358</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2589939218295585</v>
+        <v>0.2536471298113921</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4660386062354545</v>
+        <v>0.4683471988764386</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4511548693206165</v>
+        <v>0.4743108720099401</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.43244967867282</v>
+        <v>0.4095431925749177</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4084258992717047</v>
+        <v>0.4161997128564874</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3780988899257361</v>
+        <v>0.3749654018626537</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4979107487839813</v>
+        <v>0.4901080276712087</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4792893817354499</v>
+        <v>0.4795085001108013</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3795447916220817</v>
+        <v>0.3775165478286841</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4625892933115959</v>
+        <v>0.4593081025126479</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5380414022273047</v>
+        <v>0.5306638903089581</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4932984547888291</v>
+        <v>0.491279317729612</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6098021549812469</v>
+        <v>0.6213341889964404</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6753194560523738</v>
+        <v>0.6695694706114308</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7310546682599313</v>
+        <v>0.7448167909251193</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7248435195635637</v>
+        <v>0.7063907029769154</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7801000722144231</v>
+        <v>0.7986815514520745</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.60414369363689</v>
+        <v>0.5992570825355755</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7877732243853626</v>
+        <v>0.784747753981812</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6692036869001082</v>
+        <v>0.664453428409717</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6311907086243013</v>
+        <v>0.6417407279027935</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6112364196680189</v>
+        <v>0.605988968204257</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7319572094871216</v>
+        <v>0.7257938816624582</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6551467843120345</v>
+        <v>0.6555210396555521</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5583484765991604</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6548898061716053</v>
+        <v>0.6548898061716052</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.560029830006596</v>
@@ -957,7 +957,7 @@
         <v>0.706464074893524</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5105733028389177</v>
+        <v>0.5105733028389178</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5071577520704053</v>
@@ -969,7 +969,7 @@
         <v>0.6342012417612782</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5931607211692264</v>
+        <v>0.5931607211692265</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3213803571568172</v>
+        <v>0.322475125823141</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4147710184136297</v>
+        <v>0.4280741494924669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4137779841401079</v>
+        <v>0.4045945341756659</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5261607094055062</v>
+        <v>0.5096569375048066</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3624687344269157</v>
+        <v>0.3532686169826794</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4474723403758405</v>
+        <v>0.4652888238918833</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5476516799933662</v>
+        <v>0.5575856640964914</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4021092352889048</v>
+        <v>0.398958896779961</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3782807275052786</v>
+        <v>0.3872093883634734</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4823671283457111</v>
+        <v>0.4878898709153354</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5378606098740915</v>
+        <v>0.5321203885126999</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4900079064899757</v>
+        <v>0.4999519060832469</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.648977731245507</v>
+        <v>0.6297200601697411</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6535520059883407</v>
+        <v>0.6680864792498109</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.697740478273666</v>
+        <v>0.6948611031275718</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7632467872801026</v>
+        <v>0.7672139465393764</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7484749260048202</v>
+        <v>0.7380185570971676</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7096897073818248</v>
+        <v>0.7098663811381094</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8243451859755346</v>
+        <v>0.823520557938305</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6241067145965655</v>
+        <v>0.6098348874474065</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6330256114153776</v>
+        <v>0.6264198005463035</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6497351118405662</v>
+        <v>0.6523133307440091</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7257638190410373</v>
+        <v>0.726800538565356</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6692733900389138</v>
+        <v>0.6777541548907458</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.8100196960865936</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.5057672020747926</v>
+        <v>0.5057672020747925</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.6302232475924566</v>
@@ -1105,7 +1105,7 @@
         <v>0.7116550552188138</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5459615685814615</v>
+        <v>0.5459615685814614</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.324094921501778</v>
+        <v>0.3279647872676739</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.485607823593124</v>
+        <v>0.4970218198280777</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4371125355154352</v>
+        <v>0.4200292140385774</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4373984132105106</v>
+        <v>0.4228955600196461</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5306828587427722</v>
+        <v>0.5351213733692355</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3487733519654166</v>
+        <v>0.3613808885015166</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5656529254836661</v>
+        <v>0.5946150838826698</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3891460380638684</v>
+        <v>0.3677015204051007</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4527591261100823</v>
+        <v>0.4646515044260137</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4831423084049046</v>
+        <v>0.4886635642565271</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5692430618015381</v>
+        <v>0.5657474109150196</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4394887650296472</v>
+        <v>0.4454764797888795</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7714024850308758</v>
+        <v>0.7418251106597499</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.798301071686475</v>
+        <v>0.8011150179613152</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8058288449817422</v>
+        <v>0.789190229441542</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7370507268170942</v>
+        <v>0.7246065119898328</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7555651278761243</v>
+        <v>0.7506549781465059</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9484600512736888</v>
+        <v>0.954106253119023</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.65602450318136</v>
+        <v>0.6395708381085392</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7789230997848005</v>
+        <v>0.773595612234103</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7296094991024753</v>
+        <v>0.7403715272195694</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.828138602761708</v>
+        <v>0.8302614378716452</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6477342328574905</v>
+        <v>0.6534469247658052</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.6094852222684108</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5986508241173486</v>
+        <v>0.5986508241173487</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6409206741229361</v>
@@ -1229,7 +1229,7 @@
         <v>0.6481468879785839</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5181887226547321</v>
+        <v>0.518188722654732</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.5409710333941646</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3757936211397264</v>
+        <v>0.3800132977820825</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5172694610484908</v>
+        <v>0.5140192061628249</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5375492995231352</v>
+        <v>0.5325457312272547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5300567223033462</v>
+        <v>0.5249042444834812</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5356877241484193</v>
+        <v>0.5363350924593552</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4804876679699533</v>
+        <v>0.4800911502652568</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5716447679424773</v>
+        <v>0.5686355371662813</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4633879807482358</v>
+        <v>0.4626180644109299</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.463715797569944</v>
+        <v>0.4715112286935673</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5231917014287871</v>
+        <v>0.5255489257966232</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5746482107064564</v>
+        <v>0.5727041141362453</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5128788891850751</v>
+        <v>0.5061085219149805</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5604457425034209</v>
+        <v>0.5574085824519237</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6414389745237071</v>
+        <v>0.6362827020058037</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6798055130406594</v>
+        <v>0.6722985434490217</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6698773122892978</v>
+        <v>0.6713859851094178</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7382847859262227</v>
+        <v>0.730362902892597</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6125962751772976</v>
+        <v>0.6064612229411799</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7212200084677132</v>
+        <v>0.7166184754184916</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5815020963047302</v>
+        <v>0.5735790349205828</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6052422195040704</v>
+        <v>0.6073844484316124</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6110996778939262</v>
+        <v>0.6119973382737078</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6746965410671941</v>
+        <v>0.674554408211407</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6054701947142938</v>
+        <v>0.6015140152094383</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3741</v>
+        <v>3502</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35272</v>
+        <v>34908</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>38881</v>
+        <v>39123</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16537</v>
+        <v>14796</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12344</v>
+        <v>11614</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>38077</v>
+        <v>38658</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>28809</v>
+        <v>28663</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15568</v>
+        <v>15362</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18175</v>
+        <v>17824</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>78039</v>
+        <v>77586</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>72273</v>
+        <v>72629</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>35344</v>
+        <v>35495</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12042</v>
+        <v>11894</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>53028</v>
+        <v>52178</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55796</v>
+        <v>55664</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>29592</v>
+        <v>28784</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21155</v>
+        <v>21040</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>56505</v>
+        <v>57159</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>45123</v>
+        <v>45345</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28178</v>
+        <v>27658</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>30787</v>
+        <v>31097</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>103941</v>
+        <v>104318</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>96443</v>
+        <v>97053</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>54530</v>
+        <v>53583</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8913</v>
+        <v>8729</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>44097</v>
+        <v>44315</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>22604</v>
+        <v>23764</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21356</v>
+        <v>20224</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12431</v>
+        <v>12668</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>31447</v>
+        <v>31187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>24181</v>
+        <v>23802</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>35061</v>
+        <v>35077</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>24614</v>
+        <v>24482</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>82245</v>
+        <v>81662</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>53087</v>
+        <v>52359</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>60447</v>
+        <v>60199</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20986</v>
+        <v>21383</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>63899</v>
+        <v>63355</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36628</v>
+        <v>37318</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35795</v>
+        <v>34884</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>23744</v>
+        <v>24309</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>50248</v>
+        <v>49841</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>38257</v>
+        <v>38110</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>48954</v>
+        <v>48607</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>40933</v>
+        <v>41618</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>108674</v>
+        <v>107741</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>72220</v>
+        <v>71612</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>80279</v>
+        <v>80325</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14189</v>
+        <v>14237</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>28037</v>
+        <v>28937</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>19764</v>
+        <v>19325</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>39265</v>
+        <v>38033</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9234</v>
+        <v>9000</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>27950</v>
+        <v>29063</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27458</v>
+        <v>27956</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22428</v>
+        <v>22253</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>26337</v>
+        <v>26959</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>62736</v>
+        <v>63454</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>52659</v>
+        <v>52097</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>63898</v>
+        <v>65195</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28652</v>
+        <v>27802</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>44178</v>
+        <v>45161</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33328</v>
+        <v>33190</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>56957</v>
+        <v>57253</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19068</v>
+        <v>18802</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>44329</v>
+        <v>44340</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>41331</v>
+        <v>41290</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34811</v>
+        <v>34015</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>44074</v>
+        <v>43614</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>84504</v>
+        <v>84839</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>71055</v>
+        <v>71157</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>87275</v>
+        <v>88380</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7995</v>
+        <v>8091</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>21476</v>
+        <v>21981</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11063</v>
+        <v>10631</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24144</v>
+        <v>23344</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5782</v>
+        <v>5830</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9164</v>
+        <v>9496</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12688</v>
+        <v>13337</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20071</v>
+        <v>18965</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16102</v>
+        <v>16525</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>34062</v>
+        <v>34451</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>27176</v>
+        <v>27009</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>46928</v>
+        <v>47567</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19030</v>
+        <v>18301</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35305</v>
+        <v>35429</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20395</v>
+        <v>19974</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>40685</v>
+        <v>39998</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>10895</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>19853</v>
+        <v>19724</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>21274</v>
+        <v>21401</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>33836</v>
+        <v>32988</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>27702</v>
+        <v>27513</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>51438</v>
+        <v>52197</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>39535</v>
+        <v>39637</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>69164</v>
+        <v>69774</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>45897</v>
+        <v>46412</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>145727</v>
+        <v>144812</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>106766</v>
+        <v>105773</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>117155</v>
+        <v>116016</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>49124</v>
+        <v>49183</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>121762</v>
+        <v>121662</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>108165</v>
+        <v>107596</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>106157</v>
+        <v>105981</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>99159</v>
+        <v>100826</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>279980</v>
+        <v>281241</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>222869</v>
+        <v>222115</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>230853</v>
+        <v>227806</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>68449</v>
+        <v>68078</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>180709</v>
+        <v>179256</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>135021</v>
+        <v>133530</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>148058</v>
+        <v>148392</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>67702</v>
+        <v>66976</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>155240</v>
+        <v>153686</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>136468</v>
+        <v>135597</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>133216</v>
+        <v>131401</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>129422</v>
+        <v>129880</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>327023</v>
+        <v>327503</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>261671</v>
+        <v>261616</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>272529</v>
+        <v>270749</v>
       </c>
     </row>
     <row r="24">
